--- a/REGULAR/ONT/MONTEALEGRE, CHARLIE JR..xlsx
+++ b/REGULAR/ONT/MONTEALEGRE, CHARLIE JR..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC3921-FD99-4AC8-B918-37F0B8F30C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
   <si>
     <t>PERIOD</t>
   </si>
@@ -397,12 +398,15 @@
   </si>
   <si>
     <t>UT(0-1-0)</t>
+  </si>
+  <si>
+    <t>11/7-10,13/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1275,7 +1279,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1322,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1386,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,7 +1446,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1512,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1575,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1673,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1732,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1797,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1840,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1915,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2101,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2167,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2225,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2291,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2347,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2422,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2465,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2531,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2587,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2681,7 +2685,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2748,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2797,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2810,25 +2814,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K186" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K186" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2840,13 +2844,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2855,14 +2859,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3166,7 +3170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3176,7 +3180,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3184,34 +3188,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A155" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="F164" sqref="F164"/>
+      <pane ySplit="4428" topLeftCell="A173" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3232,7 +3236,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3252,7 +3256,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3274,7 +3278,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3282,7 +3286,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3295,7 +3299,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3312,7 +3316,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3347,7 +3351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3356,7 +3360,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>81.144000000000005</v>
+        <v>82.394000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3366,12 +3370,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>90.420000000000016</v>
+        <v>96.670000000000016</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3393,7 +3397,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>40634</v>
       </c>
@@ -3413,7 +3417,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>40664</v>
       </c>
@@ -3433,7 +3437,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>40695</v>
       </c>
@@ -3453,7 +3457,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>40725</v>
       </c>
@@ -3473,7 +3477,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>40756</v>
       </c>
@@ -3493,7 +3497,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>40787</v>
       </c>
@@ -3513,7 +3517,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>40817</v>
       </c>
@@ -3533,7 +3537,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>40848</v>
       </c>
@@ -3553,7 +3557,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>40878</v>
       </c>
@@ -3573,7 +3577,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
         <v>44</v>
       </c>
@@ -3591,7 +3595,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>40909</v>
       </c>
@@ -3611,7 +3615,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>40940</v>
       </c>
@@ -3631,7 +3635,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>40969</v>
       </c>
@@ -3651,7 +3655,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>41000</v>
       </c>
@@ -3671,7 +3675,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>41030</v>
       </c>
@@ -3691,7 +3695,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>41061</v>
       </c>
@@ -3717,7 +3721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>41091</v>
       </c>
@@ -3737,7 +3741,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>41122</v>
       </c>
@@ -3757,7 +3761,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>41153</v>
       </c>
@@ -3777,7 +3781,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>41183</v>
       </c>
@@ -3797,7 +3801,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>41214</v>
       </c>
@@ -3817,7 +3821,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>41244</v>
       </c>
@@ -3837,7 +3841,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
         <v>47</v>
       </c>
@@ -3855,7 +3859,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>41275</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>41306</v>
       </c>
@@ -3901,7 +3905,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>41334</v>
       </c>
@@ -3921,7 +3925,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>41365</v>
       </c>
@@ -3945,7 +3949,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>41395</v>
       </c>
@@ -3965,7 +3969,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>41426</v>
       </c>
@@ -3985,7 +3989,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>41456</v>
       </c>
@@ -4011,7 +4015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>41487</v>
       </c>
@@ -4031,7 +4035,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>41518</v>
       </c>
@@ -4051,7 +4055,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>41548</v>
       </c>
@@ -4071,7 +4075,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>41579</v>
       </c>
@@ -4091,7 +4095,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>41609</v>
       </c>
@@ -4111,7 +4115,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
         <v>53</v>
       </c>
@@ -4129,7 +4133,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>41640</v>
       </c>
@@ -4149,7 +4153,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>41671</v>
       </c>
@@ -4169,7 +4173,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>41699</v>
       </c>
@@ -4189,7 +4193,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>41730</v>
       </c>
@@ -4215,7 +4219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>41760</v>
       </c>
@@ -4239,7 +4243,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>41791</v>
       </c>
@@ -4263,7 +4267,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>41821</v>
       </c>
@@ -4283,7 +4287,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>41852</v>
       </c>
@@ -4303,7 +4307,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>41883</v>
       </c>
@@ -4327,7 +4331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>41913</v>
       </c>
@@ -4353,7 +4357,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>41944</v>
       </c>
@@ -4375,7 +4379,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>41974</v>
       </c>
@@ -4395,7 +4399,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="48" t="s">
         <v>63</v>
       </c>
@@ -4413,7 +4417,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>42005</v>
       </c>
@@ -4437,7 +4441,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>42036</v>
       </c>
@@ -4457,7 +4461,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>42064</v>
       </c>
@@ -4477,7 +4481,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>42095</v>
       </c>
@@ -4505,7 +4509,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>68</v>
@@ -4527,7 +4531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>42125</v>
       </c>
@@ -4547,7 +4551,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>42156</v>
       </c>
@@ -4573,7 +4577,7 @@
         <v>42174</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>42186</v>
       </c>
@@ -4593,7 +4597,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>42217</v>
       </c>
@@ -4613,7 +4617,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>42248</v>
       </c>
@@ -4633,7 +4637,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>42278</v>
       </c>
@@ -4653,7 +4657,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>42309</v>
       </c>
@@ -4673,7 +4677,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>42339</v>
       </c>
@@ -4693,7 +4697,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>72</v>
       </c>
@@ -4711,7 +4715,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>42370</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>71</v>
@@ -4759,7 +4763,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>73</v>
@@ -4781,7 +4785,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>42401</v>
       </c>
@@ -4807,7 +4811,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>42430</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>42461</v>
       </c>
@@ -4855,7 +4859,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>42491</v>
       </c>
@@ -4875,7 +4879,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>42522</v>
       </c>
@@ -4901,7 +4905,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>42552</v>
       </c>
@@ -4921,7 +4925,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>42583</v>
       </c>
@@ -4941,7 +4945,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>42614</v>
       </c>
@@ -4967,7 +4971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>42644</v>
       </c>
@@ -4987,7 +4991,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>42675</v>
       </c>
@@ -5007,7 +5011,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>42705</v>
       </c>
@@ -5027,7 +5031,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>84</v>
       </c>
@@ -5045,7 +5049,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>42736</v>
       </c>
@@ -5065,7 +5069,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>42767</v>
       </c>
@@ -5089,7 +5093,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>42795</v>
       </c>
@@ -5109,7 +5113,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>42826</v>
       </c>
@@ -5129,7 +5133,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>42856</v>
       </c>
@@ -5149,7 +5153,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>42887</v>
       </c>
@@ -5169,7 +5173,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>42917</v>
       </c>
@@ -5195,7 +5199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>42948</v>
       </c>
@@ -5215,7 +5219,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>42979</v>
       </c>
@@ -5241,7 +5245,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>43009</v>
       </c>
@@ -5261,7 +5265,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>43040</v>
       </c>
@@ -5281,7 +5285,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>43070</v>
       </c>
@@ -5305,7 +5309,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>92</v>
       </c>
@@ -5323,7 +5327,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>43101</v>
       </c>
@@ -5343,7 +5347,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>43132</v>
       </c>
@@ -5363,7 +5367,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>43160</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>43191</v>
       </c>
@@ -5415,7 +5419,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>51</v>
@@ -5437,7 +5441,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>96</v>
@@ -5457,7 +5461,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>43221</v>
       </c>
@@ -5477,7 +5481,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>43252</v>
       </c>
@@ -5503,7 +5507,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>65</v>
@@ -5525,7 +5529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>43282</v>
       </c>
@@ -5547,7 +5551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>43313</v>
       </c>
@@ -5567,7 +5571,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>43344</v>
       </c>
@@ -5587,7 +5591,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>43374</v>
       </c>
@@ -5607,7 +5611,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>43405</v>
       </c>
@@ -5627,7 +5631,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>43435</v>
       </c>
@@ -5647,7 +5651,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="48" t="s">
         <v>102</v>
       </c>
@@ -5665,7 +5669,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>43466</v>
       </c>
@@ -5685,7 +5689,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>43497</v>
       </c>
@@ -5705,7 +5709,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>43525</v>
       </c>
@@ -5725,7 +5729,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>43556</v>
       </c>
@@ -5745,7 +5749,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>43586</v>
       </c>
@@ -5765,7 +5769,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>43617</v>
       </c>
@@ -5791,7 +5795,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>43647</v>
       </c>
@@ -5811,7 +5815,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>43678</v>
       </c>
@@ -5831,7 +5835,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>43709</v>
       </c>
@@ -5851,7 +5855,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>43739</v>
       </c>
@@ -5871,7 +5875,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>43770</v>
       </c>
@@ -5891,7 +5895,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>43800</v>
       </c>
@@ -5911,7 +5915,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="48" t="s">
         <v>105</v>
       </c>
@@ -5929,7 +5933,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>43831</v>
       </c>
@@ -5949,7 +5953,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>43862</v>
       </c>
@@ -5975,7 +5979,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>43891</v>
       </c>
@@ -5995,7 +5999,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>43922</v>
       </c>
@@ -6015,7 +6019,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>43952</v>
       </c>
@@ -6035,7 +6039,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>43983</v>
       </c>
@@ -6055,7 +6059,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>44013</v>
       </c>
@@ -6075,7 +6079,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>44044</v>
       </c>
@@ -6095,7 +6099,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>44075</v>
       </c>
@@ -6115,7 +6119,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>44105</v>
       </c>
@@ -6135,7 +6139,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>44136</v>
       </c>
@@ -6155,7 +6159,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>44166</v>
       </c>
@@ -6179,7 +6183,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="48" t="s">
         <v>107</v>
       </c>
@@ -6197,7 +6201,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>44197</v>
       </c>
@@ -6217,7 +6221,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>44228</v>
       </c>
@@ -6237,7 +6241,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>44256</v>
       </c>
@@ -6257,7 +6261,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>44287</v>
       </c>
@@ -6277,7 +6281,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>44317</v>
       </c>
@@ -6297,7 +6301,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>44348</v>
       </c>
@@ -6317,7 +6321,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>44378</v>
       </c>
@@ -6337,7 +6341,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>44409</v>
       </c>
@@ -6357,7 +6361,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>44440</v>
       </c>
@@ -6383,7 +6387,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>44470</v>
       </c>
@@ -6403,7 +6407,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>44501</v>
       </c>
@@ -6423,7 +6427,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>44531</v>
       </c>
@@ -6443,7 +6447,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="48" t="s">
         <v>108</v>
       </c>
@@ -6461,7 +6465,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>44562</v>
       </c>
@@ -6481,7 +6485,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>44593</v>
       </c>
@@ -6501,7 +6505,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>44621</v>
       </c>
@@ -6527,7 +6531,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>44652</v>
       </c>
@@ -6551,7 +6555,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>44682</v>
       </c>
@@ -6575,7 +6579,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>44713</v>
       </c>
@@ -6595,7 +6599,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>44743</v>
       </c>
@@ -6615,7 +6619,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>44774</v>
       </c>
@@ -6639,7 +6643,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>44805</v>
       </c>
@@ -6659,7 +6663,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>44835</v>
       </c>
@@ -6679,7 +6683,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>44866</v>
       </c>
@@ -6699,7 +6703,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>44896</v>
       </c>
@@ -6719,7 +6723,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="48" t="s">
         <v>116</v>
       </c>
@@ -6737,9 +6741,9 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -6757,9 +6761,9 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13">
@@ -6777,9 +6781,9 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13">
@@ -6797,9 +6801,9 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13">
@@ -6817,20 +6821,22 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B174" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C174" s="13"/>
+      <c r="C174" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D174" s="39"/>
       <c r="E174" s="9"/>
       <c r="F174" s="20"/>
-      <c r="G174" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G174" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H174" s="39">
         <v>1</v>
@@ -6841,7 +6847,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>117</v>
@@ -6863,85 +6869,97 @@
         <v>118</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B176" s="20"/>
-      <c r="C176" s="13"/>
+      <c r="C176" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D176" s="39"/>
       <c r="E176" s="9"/>
       <c r="F176" s="20"/>
-      <c r="G176" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G176" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H176" s="39"/>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B177" s="20"/>
-      <c r="C177" s="13"/>
+      <c r="C177" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D177" s="39"/>
       <c r="E177" s="9"/>
       <c r="F177" s="20"/>
-      <c r="G177" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G177" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H177" s="39"/>
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B178" s="20"/>
-      <c r="C178" s="13"/>
+      <c r="C178" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D178" s="39"/>
       <c r="E178" s="9"/>
       <c r="F178" s="20"/>
-      <c r="G178" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G178" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H178" s="39"/>
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B179" s="20"/>
-      <c r="C179" s="13"/>
+      <c r="C179" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D179" s="39"/>
       <c r="E179" s="9"/>
       <c r="F179" s="20"/>
-      <c r="G179" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G179" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H179" s="39"/>
       <c r="I179" s="9"/>
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B180" s="20"/>
+        <v>45230</v>
+      </c>
+      <c r="B180" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="C180" s="13"/>
-      <c r="D180" s="39"/>
+      <c r="D180" s="39">
+        <v>5</v>
+      </c>
       <c r="E180" s="9"/>
       <c r="F180" s="20"/>
       <c r="G180" s="13" t="str">
@@ -6951,11 +6969,13 @@
       <c r="H180" s="39"/>
       <c r="I180" s="9"/>
       <c r="J180" s="11"/>
-      <c r="K180" s="20"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K180" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6971,9 +6991,9 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -6989,7 +7009,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -7005,7 +7025,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -7021,7 +7041,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -7037,7 +7057,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41"/>
       <c r="B186" s="15"/>
       <c r="C186" s="42"/>
@@ -7068,10 +7088,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7094,7 +7114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -7102,21 +7122,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -7129,7 +7149,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7158,7 +7178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -7184,17 +7204,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7215,7 +7235,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7242,7 +7262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7268,7 +7288,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7294,7 +7314,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7320,7 +7340,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7346,7 +7366,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7372,7 +7392,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7398,7 +7418,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7424,7 +7444,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7444,7 +7464,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7464,7 +7484,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7484,7 +7504,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7505,7 +7525,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7526,7 +7546,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7547,7 +7567,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7568,7 +7588,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7589,7 +7609,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7610,7 +7630,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7631,7 +7651,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7652,7 +7672,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7673,7 +7693,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7694,7 +7714,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7715,7 +7735,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7736,7 +7756,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7757,7 +7777,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7778,7 +7798,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7799,7 +7819,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7820,7 +7840,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7841,7 +7861,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7862,7 +7882,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7883,7 +7903,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7904,7 +7924,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7913,7 +7933,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7922,7 +7942,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7931,7 +7951,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7940,7 +7960,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7949,7 +7969,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7958,7 +7978,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7967,7 +7987,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7976,7 +7996,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7985,7 +8005,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7994,7 +8014,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8003,7 +8023,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8012,7 +8032,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8021,7 +8041,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8030,7 +8050,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8039,7 +8059,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8048,7 +8068,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8057,7 +8077,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8066,7 +8086,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8075,7 +8095,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8084,7 +8104,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8093,7 +8113,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8102,7 +8122,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8111,7 +8131,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8120,7 +8140,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8129,7 +8149,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8138,7 +8158,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8147,7 +8167,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8156,7 +8176,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8165,7 +8185,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
